--- a/report_ca_nhan/SÓC TRĂNG/NV-38 Lê Thị Ngọc Mi 7-2024.xlsx
+++ b/report_ca_nhan/SÓC TRĂNG/NV-38 Lê Thị Ngọc Mi 7-2024.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>490000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="4">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1500000</v>
+        <v>1928571.428571429</v>
       </c>
     </row>
     <row r="21">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1990000</v>
+        <v>2558571.428571429</v>
       </c>
     </row>
     <row r="31">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1990000</v>
+        <v>2558571.428571429</v>
       </c>
     </row>
   </sheetData>
